--- a/test.xlsx
+++ b/test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillvillany/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillvillany/Documents/GitHub/Demo-Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBA7E79-FB76-0643-8CC6-E002335F6B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1956F413-0C10-DE4B-BD92-BC8F23A5B70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{589E9BEA-CEF2-274E-8826-0C25B3057AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43931AE-6ACE-C84D-BEAA-3BA36321AD41}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,10 +414,16 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillvillany/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillvillany/Documents/GitHub/Demo-Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBA7E79-FB76-0643-8CC6-E002335F6B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6E8CB7-3F69-E844-876F-2AA65F83877B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{589E9BEA-CEF2-274E-8826-0C25B3057AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43931AE-6ACE-C84D-BEAA-3BA36321AD41}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,10 +414,16 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
